--- a/Test Data/T1753.xlsx
+++ b/Test Data/T1753.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEED13F-414C-4374-86F1-46D08D8572CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFE8F42-CC2D-40AC-91C9-12B9AD811BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="2" r:id="rId1"/>
@@ -354,9 +354,6 @@
     <t>SNM 800</t>
   </si>
   <si>
-    <t>801 PS</t>
-  </si>
-  <si>
     <t>DIM 800 - Interrupt</t>
   </si>
   <si>
@@ -373,6 +370,9 @@
   </si>
   <si>
     <t>Slot Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">801 PS </t>
   </si>
 </sst>
 </file>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4546DD-CCE5-4792-9349-12E338831249}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,7 +841,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -894,7 +894,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,7 +1051,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1171,7 +1171,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1239,7 +1239,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -1371,7 +1371,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1576,7 +1576,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1634,7 +1634,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1706,7 +1706,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1821,7 +1821,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1881,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D095B7-4CC3-4000-9320-601AE1902AD0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1926,7 +1926,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1949,12 +1949,12 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1964,7 +1964,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/T1753.xlsx
+++ b/Test Data/T1753.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFE8F42-CC2D-40AC-91C9-12B9AD811BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7DC60A-5C6A-4E92-A33F-B1A989B28C9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
   <si>
     <t>801 CH</t>
   </si>
@@ -370,9 +370,6 @@
   </si>
   <si>
     <t>Slot Cards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">801 PS </t>
   </si>
 </sst>
 </file>
@@ -794,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4546DD-CCE5-4792-9349-12E338831249}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,101 +891,96 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
         <v>24</v>
       </c>
     </row>
